--- a/biology/Médecine/François-Xavier_Lesbre/François-Xavier_Lesbre.xlsx
+++ b/biology/Médecine/François-Xavier_Lesbre/François-Xavier_Lesbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Xavier_Lesbre</t>
+          <t>François-Xavier_Lesbre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Xavier Lesbre est un vétérinaire, anatomiste et anthropologue français, né à Ébreuil (Allier) le 12 mars 1858 et mort à Lyon le 26 janvier 1942. Il a été directeur de l'École vétérinaire de Lyon et membre correspondant de l'Académie des sciences.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Xavier_Lesbre</t>
+          <t>François-Xavier_Lesbre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chef de travaux, puis professeur d'anatomie à l'École vétérinaire de Lyon, avant d'en devenir directeur.
 Il est considéré comme l'un des principaux représentants de la tératologie animale moderne.
-Après avoir été lauréat de l'Académie des sciences[1], de l'Académie nationale de médecine[2] et de l'Académie d'agriculture, il fut élu correspondant national de l'Académie nationale de médecine en 1920 et en devint associé national en 1933. Le 7 juin 1937, il fut élu à l'Académie des sciences, dans la section d'économie rurale. Il fut également membre de l'Académie des sciences, belles-lettres et arts de Lyon de 1913 à 1942[3].
+Après avoir été lauréat de l'Académie des sciences, de l'Académie nationale de médecine et de l'Académie d'agriculture, il fut élu correspondant national de l'Académie nationale de médecine en 1920 et en devint associé national en 1933. Le 7 juin 1937, il fut élu à l'Académie des sciences, dans la section d'économie rurale. Il fut également membre de l'Académie des sciences, belles-lettres et arts de Lyon de 1913 à 1942.
 Il est enterré au cimetière d'Ébreuil (Allier), sa ville natale.
 François-Xavier Lesbre est le père du professeur Michel Lesbre (1908-1999), professeur de chimie organique à l'Université Toulouse-III-Paul-Sabatier et fondateur du Laboratoire Hétérochimie fondamentale et appliquée de l'Institut de chimie de Toulouse.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Xavier_Lesbre</t>
+          <t>François-Xavier_Lesbre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Des muscles pectoraux dans la série des mammifères domestiques, détermination de leurs homologies avec ceux de l'homme, réforme de leur nomenclature, [s.n.], 1891, lire en ligne sur Gallica.
 Des muscles pectoraux dans la série des mammifères domestiques, détermination de leurs homologies avec ceux de l'homme, réforme de leur nomenclature, A. Rey (Lyon), 1892, lire en ligne sur Gallica.
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Xavier_Lesbre</t>
+          <t>François-Xavier_Lesbre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,9 +620,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée Lesbre-Tagand[4], du nom de ses créateurs François-Xavier Lesbre et Richard Tagand[5] se trouve dans l'École nationale vétérinaire de Lyon et a été inauguré en 1984.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée Lesbre-Tagand, du nom de ses créateurs François-Xavier Lesbre et Richard Tagand se trouve dans l'École nationale vétérinaire de Lyon et a été inauguré en 1984.
 </t>
         </is>
       </c>
